--- a/단상 HMI 통신_4_2inch_수정.xlsx
+++ b/단상 HMI 통신_4_2inch_수정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevWork\4.IFTechWork\1.UPS1P1P\Display4.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7867D108-A37F-4EB1-8CC7-FF679C04BBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3378E58A-6D7B-4DC1-A724-A5590670D905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="9570" yWindow="1440" windowWidth="27030" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4_2inch 터치번지" sheetId="2" r:id="rId1"/>
@@ -540,9 +540,6 @@
     <t>17.6</t>
   </si>
   <si>
-    <t>17.7</t>
-  </si>
-  <si>
     <t>17.8</t>
   </si>
   <si>
@@ -2045,6 +2042,10 @@
   </si>
   <si>
     <t>TRANSFER RUN/STOP STATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2829,6 +2830,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2838,9 +2863,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2872,27 +2894,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3201,8 +3202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3234,43 +3235,43 @@
       <c r="B2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="89"/>
+      <c r="D2" s="96"/>
       <c r="E2" s="36" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="40"/>
       <c r="G2" s="73" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I2" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="J2" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="J2" s="40" t="s">
-        <v>188</v>
-      </c>
       <c r="K2" s="53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L2" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="M2" s="40" t="s">
         <v>306</v>
-      </c>
-      <c r="M2" s="40" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="32"/>
-      <c r="C3" s="90" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91"/>
+      <c r="C3" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
       <c r="F3" s="59"/>
       <c r="G3" s="40"/>
       <c r="H3" s="42"/>
@@ -3287,23 +3288,23 @@
         <v>0</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>53</v>
       </c>
       <c r="F4" s="59"/>
       <c r="G4" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H4" s="42"/>
       <c r="I4" s="42"/>
       <c r="J4" s="42"/>
       <c r="L4" s="66" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M4" s="66" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
@@ -3314,23 +3315,23 @@
         <v>1</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E5" s="37" t="s">
         <v>48</v>
       </c>
       <c r="F5" s="59"/>
       <c r="G5" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H5" s="42"/>
       <c r="I5" s="42"/>
       <c r="J5" s="42"/>
       <c r="L5" s="66" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M5" s="66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
@@ -3341,23 +3342,23 @@
         <v>2</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="59"/>
       <c r="G6" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
       <c r="J6" s="42"/>
       <c r="L6" s="66" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M6" s="66" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3368,7 +3369,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E7" s="39" t="s">
         <v>48</v>
@@ -3379,10 +3380,10 @@
       <c r="I7" s="42"/>
       <c r="J7" s="42"/>
       <c r="L7" s="66" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M7" s="66" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3394,11 +3395,11 @@
     </row>
     <row r="9" spans="2:13" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B9" s="23"/>
-      <c r="C9" s="92" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="94"/>
+      <c r="C9" s="99" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="100"/>
+      <c r="E9" s="101"/>
       <c r="F9" s="59"/>
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
@@ -3408,11 +3409,11 @@
       <c r="M9" s="66"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="84">
+      <c r="B10" s="92">
         <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>123</v>
@@ -3428,14 +3429,14 @@
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
       <c r="L10" s="66" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M10" s="66" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="85"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="8">
         <v>6.1</v>
       </c>
@@ -3453,14 +3454,14 @@
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
       <c r="L11" s="66" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M11" s="66" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="85"/>
+      <c r="B12" s="93"/>
       <c r="C12" s="8">
         <v>6.2</v>
       </c>
@@ -3476,14 +3477,14 @@
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
       <c r="L12" s="66" t="s">
+        <v>307</v>
+      </c>
+      <c r="M12" s="66" t="s">
         <v>308</v>
       </c>
-      <c r="M12" s="66" t="s">
-        <v>309</v>
-      </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="86"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="8"/>
       <c r="D13" s="21"/>
       <c r="E13" s="37"/>
@@ -3508,11 +3509,11 @@
     </row>
     <row r="15" spans="2:13" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="23"/>
-      <c r="C15" s="92" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="95"/>
+      <c r="C15" s="99" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="100"/>
+      <c r="E15" s="102"/>
       <c r="I15" s="3"/>
       <c r="L15" s="66"/>
       <c r="M15" s="66"/>
@@ -3525,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E16" s="37" t="s">
         <v>29</v>
@@ -3538,10 +3539,10 @@
       <c r="I16" s="42"/>
       <c r="J16" s="42"/>
       <c r="L16" s="66" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M16" s="66" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
@@ -3552,7 +3553,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E17" s="37" t="s">
         <v>30</v>
@@ -3565,10 +3566,10 @@
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
       <c r="L17" s="66" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M17" s="66" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
@@ -3579,7 +3580,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E18" s="37" t="s">
         <v>31</v>
@@ -3592,10 +3593,10 @@
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
       <c r="L18" s="68" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M18" s="68" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
@@ -3606,7 +3607,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E19" s="38" t="s">
         <v>52</v>
@@ -3619,10 +3620,10 @@
       <c r="I19" s="42"/>
       <c r="J19" s="42"/>
       <c r="L19" s="68" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M19" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
@@ -3647,11 +3648,11 @@
     </row>
     <row r="22" spans="2:13" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B22" s="29"/>
-      <c r="C22" s="96" t="s">
-        <v>195</v>
-      </c>
-      <c r="D22" s="97"/>
-      <c r="E22" s="98"/>
+      <c r="C22" s="103" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="104"/>
+      <c r="E22" s="105"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
@@ -3672,386 +3673,386 @@
       <c r="M23" s="66"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="87">
+      <c r="B24" s="90">
         <v>15</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>107</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F24" s="59"/>
       <c r="G24" s="42"/>
       <c r="H24" s="42"/>
       <c r="I24" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J24" s="42"/>
       <c r="L24" s="66" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M24" s="66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="87"/>
+      <c r="B25" s="90"/>
       <c r="C25" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>108</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F25" s="59"/>
       <c r="G25" s="42"/>
       <c r="H25" s="42"/>
       <c r="I25" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J25" s="42"/>
       <c r="L25" s="66" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M25" s="66" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="87"/>
+      <c r="B26" s="90"/>
       <c r="C26" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>109</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F26" s="59"/>
       <c r="G26" s="42"/>
       <c r="H26" s="42"/>
       <c r="I26" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J26" s="42"/>
       <c r="L26" s="66" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M26" s="66" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="87"/>
+      <c r="B27" s="90"/>
       <c r="C27" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>121</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F27" s="59"/>
       <c r="G27" s="42"/>
       <c r="H27" s="42"/>
       <c r="I27" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J27" s="42"/>
       <c r="L27" s="66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M27" s="66" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="87"/>
+      <c r="B28" s="90"/>
       <c r="C28" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>113</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F28" s="59"/>
       <c r="G28" s="42"/>
       <c r="H28" s="42"/>
       <c r="I28" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J28" s="42"/>
       <c r="L28" s="66" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M28" s="66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="87"/>
+      <c r="B29" s="90"/>
       <c r="C29" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>114</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F29" s="59"/>
       <c r="G29" s="42"/>
       <c r="H29" s="42"/>
       <c r="I29" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J29" s="42"/>
       <c r="L29" s="66" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M29" s="66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="87"/>
+      <c r="B30" s="90"/>
       <c r="C30" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>115</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F30" s="59"/>
       <c r="G30" s="42"/>
       <c r="H30" s="42"/>
       <c r="I30" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J30" s="42"/>
       <c r="L30" s="66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M30" s="66" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="87"/>
+      <c r="B31" s="90"/>
       <c r="C31" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>120</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F31" s="60"/>
       <c r="G31" s="42"/>
       <c r="H31" s="42"/>
       <c r="I31" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J31" s="42"/>
       <c r="L31" s="66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M31" s="66" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="87"/>
+      <c r="B32" s="90"/>
       <c r="C32" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>110</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F32" s="60"/>
       <c r="G32" s="42"/>
       <c r="H32" s="42"/>
       <c r="I32" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J32" s="42"/>
       <c r="L32" s="66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M32" s="66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="87"/>
+      <c r="B33" s="90"/>
       <c r="C33" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>111</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F33" s="60"/>
       <c r="G33" s="42"/>
       <c r="H33" s="42"/>
       <c r="I33" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J33" s="42"/>
       <c r="L33" s="66" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M33" s="66" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="87"/>
+      <c r="B34" s="90"/>
       <c r="C34" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>112</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F34" s="60"/>
       <c r="G34" s="42"/>
       <c r="H34" s="42"/>
       <c r="I34" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J34" s="42"/>
       <c r="L34" s="66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M34" s="66" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="87"/>
+      <c r="B35" s="90"/>
       <c r="C35" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D35" s="22" t="s">
         <v>119</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F35" s="60"/>
       <c r="G35" s="42"/>
       <c r="H35" s="42"/>
       <c r="I35" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J35" s="42"/>
       <c r="L35" s="66" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M35" s="66" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="87"/>
+      <c r="B36" s="90"/>
       <c r="C36" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>116</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F36" s="60"/>
       <c r="G36" s="42"/>
       <c r="H36" s="42"/>
       <c r="I36" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J36" s="42"/>
       <c r="L36" s="66" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M36" s="66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" s="87"/>
+      <c r="B37" s="90"/>
       <c r="C37" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D37" s="22" t="s">
         <v>117</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F37" s="60"/>
       <c r="G37" s="42"/>
       <c r="H37" s="42"/>
       <c r="I37" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J37" s="42"/>
       <c r="L37" s="66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M37" s="66" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="87"/>
+      <c r="B38" s="90"/>
       <c r="C38" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>118</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F38" s="60"/>
       <c r="G38" s="42"/>
       <c r="H38" s="42"/>
       <c r="I38" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J38" s="42"/>
       <c r="L38" s="66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M38" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="105"/>
+      <c r="B39" s="91"/>
       <c r="C39" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="21"/>
@@ -4071,7 +4072,7 @@
         <v>75</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E40" s="57" t="s">
         <v>66</v>
@@ -4085,17 +4086,17 @@
       <c r="M40" s="66"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="84">
+      <c r="B41" s="92">
         <v>16</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F41" s="63" t="s">
         <v>81</v>
@@ -4103,22 +4104,22 @@
       <c r="G41" s="42"/>
       <c r="H41" s="42"/>
       <c r="I41" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J41" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L41" s="68" t="s">
+        <v>566</v>
+      </c>
+      <c r="M41" s="68" t="s">
         <v>567</v>
       </c>
-      <c r="M41" s="68" t="s">
-        <v>568</v>
-      </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="87"/>
+      <c r="B42" s="90"/>
       <c r="C42" s="54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D42" s="21" t="s">
         <v>59</v>
@@ -4132,22 +4133,22 @@
       <c r="G42" s="42"/>
       <c r="H42" s="42"/>
       <c r="I42" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J42" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L42" s="66" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M42" s="66" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="87"/>
+      <c r="B43" s="90"/>
       <c r="C43" s="54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D43" s="21" t="s">
         <v>60</v>
@@ -4161,22 +4162,22 @@
       <c r="G43" s="42"/>
       <c r="H43" s="42"/>
       <c r="I43" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J43" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L43" s="68" t="s">
+        <v>426</v>
+      </c>
+      <c r="M43" s="68" t="s">
         <v>427</v>
       </c>
-      <c r="M43" s="68" t="s">
-        <v>428</v>
-      </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="87"/>
+      <c r="B44" s="90"/>
       <c r="C44" s="55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D44" s="56" t="s">
         <v>104</v>
@@ -4184,8 +4185,8 @@
       <c r="E44" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="99" t="s">
-        <v>189</v>
+      <c r="F44" s="84" t="s">
+        <v>188</v>
       </c>
       <c r="G44" s="51"/>
       <c r="H44" s="51"/>
@@ -4195,9 +4196,9 @@
       <c r="M44" s="66"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="87"/>
+      <c r="B45" s="90"/>
       <c r="C45" s="55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D45" s="56" t="s">
         <v>69</v>
@@ -4205,7 +4206,7 @@
       <c r="E45" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="99"/>
+      <c r="F45" s="84"/>
       <c r="G45" s="51"/>
       <c r="H45" s="51"/>
       <c r="I45" s="51"/>
@@ -4214,9 +4215,9 @@
       <c r="M45" s="66"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="87"/>
+      <c r="B46" s="90"/>
       <c r="C46" s="54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D46" s="21" t="s">
         <v>61</v>
@@ -4230,22 +4231,22 @@
       <c r="G46" s="42"/>
       <c r="H46" s="42"/>
       <c r="I46" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J46" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L46" s="66" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M46" s="66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B47" s="87"/>
+      <c r="B47" s="90"/>
       <c r="C47" s="54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D47" s="21" t="s">
         <v>62</v>
@@ -4259,22 +4260,22 @@
       <c r="G47" s="42"/>
       <c r="H47" s="42"/>
       <c r="I47" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J47" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L47" s="66" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M47" s="66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B48" s="87"/>
+      <c r="B48" s="90"/>
       <c r="C48" s="54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="21" t="s">
         <v>63</v>
@@ -4288,25 +4289,25 @@
       <c r="G48" s="42"/>
       <c r="H48" s="42"/>
       <c r="I48" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J48" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L48" s="66" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M48" s="66" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B49" s="87"/>
+      <c r="B49" s="90"/>
       <c r="C49" s="54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E49" s="21" t="s">
         <v>67</v>
@@ -4317,22 +4318,22 @@
       <c r="G49" s="42"/>
       <c r="H49" s="42"/>
       <c r="I49" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J49" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L49" s="68" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M49" s="68" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B50" s="87"/>
+      <c r="B50" s="90"/>
       <c r="C50" s="55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="56" t="s">
         <v>105</v>
@@ -4349,9 +4350,9 @@
       <c r="M50" s="66"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B51" s="87"/>
+      <c r="B51" s="90"/>
       <c r="C51" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="21" t="s">
         <v>64</v>
@@ -4365,22 +4366,22 @@
       <c r="G51" s="42"/>
       <c r="H51" s="42"/>
       <c r="I51" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J51" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L51" s="66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M51" s="66" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B52" s="87"/>
+      <c r="B52" s="90"/>
       <c r="C52" s="54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="21" t="s">
         <v>65</v>
@@ -4394,22 +4395,22 @@
       <c r="G52" s="42"/>
       <c r="H52" s="42"/>
       <c r="I52" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J52" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L52" s="66" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M52" s="66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B53" s="85"/>
+      <c r="B53" s="93"/>
       <c r="C53" s="55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="56" t="s">
         <v>70</v>
@@ -4418,7 +4419,7 @@
         <v>71</v>
       </c>
       <c r="F53" s="62" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G53" s="52"/>
       <c r="H53" s="51"/>
@@ -4428,9 +4429,9 @@
       <c r="M53" s="66"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B54" s="85"/>
+      <c r="B54" s="93"/>
       <c r="C54" s="54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D54" s="21" t="s">
         <v>72</v>
@@ -4442,22 +4443,22 @@
       <c r="G54" s="42"/>
       <c r="H54" s="42"/>
       <c r="I54" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J54" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L54" s="66" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M54" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B55" s="85"/>
+      <c r="B55" s="93"/>
       <c r="C55" s="54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D55" s="21" t="s">
         <v>74</v>
@@ -4471,25 +4472,25 @@
       <c r="G55" s="42"/>
       <c r="H55" s="42"/>
       <c r="I55" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J55" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L55" s="66" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M55" s="66" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B56" s="86"/>
+      <c r="B56" s="94"/>
       <c r="C56" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E56" s="21" t="s">
         <v>58</v>
@@ -4498,10 +4499,10 @@
       <c r="G56" s="42"/>
       <c r="H56" s="42"/>
       <c r="I56" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J56" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L56" s="66"/>
       <c r="M56" s="66"/>
@@ -4512,7 +4513,7 @@
         <v>75</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E57" s="57" t="s">
         <v>77</v>
@@ -4522,7 +4523,7 @@
       <c r="M57" s="66"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B58" s="84">
+      <c r="B58" s="92">
         <v>17</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -4540,20 +4541,20 @@
       <c r="G58" s="42"/>
       <c r="H58" s="42"/>
       <c r="I58" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J58" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L58" s="66" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M58" s="66" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B59" s="85"/>
+      <c r="B59" s="93"/>
       <c r="C59" s="16" t="s">
         <v>129</v>
       </c>
@@ -4569,20 +4570,20 @@
       <c r="G59" s="42"/>
       <c r="H59" s="42"/>
       <c r="I59" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J59" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L59" s="66" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M59" s="66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B60" s="85"/>
+      <c r="B60" s="93"/>
       <c r="C60" s="16" t="s">
         <v>130</v>
       </c>
@@ -4598,20 +4599,20 @@
       <c r="G60" s="42"/>
       <c r="H60" s="42"/>
       <c r="I60" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J60" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L60" s="66" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M60" s="66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B61" s="85"/>
+      <c r="B61" s="93"/>
       <c r="C61" s="16" t="s">
         <v>131</v>
       </c>
@@ -4627,20 +4628,20 @@
       <c r="G61" s="42"/>
       <c r="H61" s="42"/>
       <c r="I61" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J61" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L61" s="66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M61" s="66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B62" s="85"/>
+      <c r="B62" s="93"/>
       <c r="C62" s="16" t="s">
         <v>132</v>
       </c>
@@ -4656,20 +4657,20 @@
       <c r="G62" s="42"/>
       <c r="H62" s="42"/>
       <c r="I62" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J62" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L62" s="66" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M62" s="66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B63" s="85"/>
+      <c r="B63" s="93"/>
       <c r="C63" s="16" t="s">
         <v>133</v>
       </c>
@@ -4685,20 +4686,20 @@
       <c r="G63" s="42"/>
       <c r="H63" s="42"/>
       <c r="I63" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J63" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L63" s="66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M63" s="66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B64" s="85"/>
+      <c r="B64" s="93"/>
       <c r="C64" s="16" t="s">
         <v>134</v>
       </c>
@@ -4712,22 +4713,22 @@
       <c r="G64" s="42"/>
       <c r="H64" s="42"/>
       <c r="I64" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J64" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L64" s="66" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M64" s="66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B65" s="85"/>
+      <c r="B65" s="93"/>
       <c r="C65" s="16" t="s">
-        <v>135</v>
+        <v>570</v>
       </c>
       <c r="D65" s="21" t="s">
         <v>91</v>
@@ -4741,22 +4742,22 @@
       <c r="G65" s="42"/>
       <c r="H65" s="42"/>
       <c r="I65" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J65" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L65" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="M65" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="M65" s="66" t="s">
-        <v>222</v>
-      </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B66" s="85"/>
+      <c r="B66" s="93"/>
       <c r="C66" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D66" s="21" t="s">
         <v>92</v>
@@ -4770,22 +4771,22 @@
       <c r="G66" s="42"/>
       <c r="H66" s="42"/>
       <c r="I66" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J66" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L66" s="66" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M66" s="66" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B67" s="85"/>
+      <c r="B67" s="93"/>
       <c r="C67" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D67" s="21" t="s">
         <v>93</v>
@@ -4799,22 +4800,22 @@
       <c r="G67" s="42"/>
       <c r="H67" s="42"/>
       <c r="I67" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J67" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L67" s="66" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M67" s="66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B68" s="85"/>
+      <c r="B68" s="93"/>
       <c r="C68" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D68" s="21" t="s">
         <v>94</v>
@@ -4828,22 +4829,22 @@
       <c r="G68" s="42"/>
       <c r="H68" s="42"/>
       <c r="I68" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J68" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L68" s="66" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M68" s="66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B69" s="85"/>
+      <c r="B69" s="93"/>
       <c r="C69" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D69" s="21" t="s">
         <v>95</v>
@@ -4857,22 +4858,22 @@
       <c r="G69" s="42"/>
       <c r="H69" s="42"/>
       <c r="I69" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J69" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L69" s="66" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M69" s="66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B70" s="85"/>
+      <c r="B70" s="93"/>
       <c r="C70" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D70" s="21" t="s">
         <v>96</v>
@@ -4884,22 +4885,22 @@
       <c r="G70" s="42"/>
       <c r="H70" s="42"/>
       <c r="I70" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J70" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L70" s="66" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M70" s="66" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B71" s="85"/>
+      <c r="B71" s="93"/>
       <c r="C71" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D71" s="21" t="s">
         <v>97</v>
@@ -4913,22 +4914,22 @@
       <c r="G71" s="42"/>
       <c r="H71" s="42"/>
       <c r="I71" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J71" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L71" s="66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M71" s="66" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B72" s="85"/>
+      <c r="B72" s="93"/>
       <c r="C72" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D72" s="21" t="s">
         <v>76</v>
@@ -4940,22 +4941,22 @@
       <c r="G72" s="42"/>
       <c r="H72" s="42"/>
       <c r="I72" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J72" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L72" s="66" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M72" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="88"/>
+      <c r="B73" s="95"/>
       <c r="C73" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D73" s="24"/>
       <c r="E73" s="47"/>
@@ -4980,11 +4981,11 @@
     </row>
     <row r="75" spans="2:13" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B75" s="23"/>
-      <c r="C75" s="100" t="s">
-        <v>186</v>
-      </c>
-      <c r="D75" s="100"/>
-      <c r="E75" s="101"/>
+      <c r="C75" s="85" t="s">
+        <v>185</v>
+      </c>
+      <c r="D75" s="85"/>
+      <c r="E75" s="86"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B76" s="4">
@@ -4994,23 +4995,23 @@
         <v>0</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E76" s="37" t="s">
         <v>17</v>
       </c>
       <c r="F76" s="59"/>
       <c r="G76" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H76" s="42"/>
       <c r="I76" s="46"/>
       <c r="J76" s="46"/>
       <c r="L76" s="66" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M76" s="66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.3">
@@ -5028,16 +5029,16 @@
       </c>
       <c r="F77" s="59"/>
       <c r="G77" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H77" s="42"/>
       <c r="I77" s="46"/>
       <c r="J77" s="46"/>
       <c r="L77" s="66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M77" s="66" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.3">
@@ -5055,13 +5056,13 @@
       </c>
       <c r="F78" s="59"/>
       <c r="G78" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H78" s="42"/>
       <c r="I78" s="46"/>
       <c r="J78" s="46"/>
       <c r="L78" s="66" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M78" s="66" t="s">
         <v>1</v>
@@ -5082,13 +5083,13 @@
       </c>
       <c r="F79" s="59"/>
       <c r="G79" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H79" s="42"/>
       <c r="I79" s="46"/>
       <c r="J79" s="46"/>
       <c r="L79" s="66" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M79" s="66" t="s">
         <v>2</v>
@@ -5109,13 +5110,13 @@
       </c>
       <c r="F80" s="59"/>
       <c r="G80" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H80" s="42"/>
       <c r="I80" s="46"/>
       <c r="J80" s="46"/>
       <c r="L80" s="66" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M80" s="66" t="s">
         <v>3</v>
@@ -5136,13 +5137,13 @@
       </c>
       <c r="F81" s="59"/>
       <c r="G81" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H81" s="42"/>
       <c r="I81" s="46"/>
       <c r="J81" s="46"/>
       <c r="L81" s="66" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M81" s="66" t="s">
         <v>4</v>
@@ -5163,13 +5164,13 @@
       </c>
       <c r="F82" s="59"/>
       <c r="G82" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H82" s="42"/>
       <c r="I82" s="46"/>
       <c r="J82" s="46"/>
       <c r="L82" s="66" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M82" s="66" t="s">
         <v>5</v>
@@ -5190,13 +5191,13 @@
       </c>
       <c r="F83" s="59"/>
       <c r="G83" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H83" s="42"/>
       <c r="I83" s="46"/>
       <c r="J83" s="46"/>
       <c r="L83" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M83" s="66" t="s">
         <v>6</v>
@@ -5217,16 +5218,16 @@
       </c>
       <c r="F84" s="59"/>
       <c r="G84" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H84" s="42"/>
       <c r="I84" s="46"/>
       <c r="J84" s="46"/>
       <c r="L84" s="66" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M84" s="66" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.3">
@@ -5244,16 +5245,16 @@
       </c>
       <c r="F85" s="59"/>
       <c r="G85" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H85" s="42"/>
       <c r="I85" s="46"/>
       <c r="J85" s="46"/>
       <c r="L85" s="66" t="s">
+        <v>350</v>
+      </c>
+      <c r="M85" s="66" t="s">
         <v>351</v>
-      </c>
-      <c r="M85" s="66" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.3">
@@ -5271,16 +5272,16 @@
       </c>
       <c r="F86" s="59"/>
       <c r="G86" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H86" s="42"/>
       <c r="I86" s="46"/>
       <c r="J86" s="46"/>
       <c r="L86" s="66" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M86" s="66" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.3">
@@ -5298,16 +5299,16 @@
       </c>
       <c r="F87" s="59"/>
       <c r="G87" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H87" s="42"/>
       <c r="I87" s="46"/>
       <c r="J87" s="46"/>
       <c r="L87" s="66" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M87" s="66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.3">
@@ -5325,16 +5326,16 @@
       </c>
       <c r="F88" s="59"/>
       <c r="G88" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H88" s="42"/>
       <c r="I88" s="46"/>
       <c r="J88" s="46"/>
       <c r="L88" s="66" t="s">
+        <v>276</v>
+      </c>
+      <c r="M88" s="66" t="s">
         <v>277</v>
-      </c>
-      <c r="M88" s="66" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.3">
@@ -5352,16 +5353,16 @@
       </c>
       <c r="F89" s="59"/>
       <c r="G89" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H89" s="42"/>
       <c r="I89" s="46"/>
       <c r="J89" s="46"/>
       <c r="L89" s="66" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M89" s="66" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="90" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5372,23 +5373,23 @@
         <v>14</v>
       </c>
       <c r="D90" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="E90" s="45" t="s">
         <v>178</v>
-      </c>
-      <c r="E90" s="45" t="s">
-        <v>179</v>
       </c>
       <c r="F90" s="59"/>
       <c r="G90" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H90" s="42"/>
       <c r="I90" s="46"/>
       <c r="J90" s="46"/>
       <c r="L90" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="M90" s="66" t="s">
         <v>281</v>
-      </c>
-      <c r="M90" s="66" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="91" spans="2:13" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5399,11 +5400,11 @@
     </row>
     <row r="92" spans="2:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B92" s="23"/>
-      <c r="C92" s="102" t="s">
-        <v>184</v>
-      </c>
-      <c r="D92" s="103"/>
-      <c r="E92" s="104"/>
+      <c r="C92" s="87" t="s">
+        <v>183</v>
+      </c>
+      <c r="D92" s="88"/>
+      <c r="E92" s="89"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B93" s="1">
@@ -5421,15 +5422,15 @@
       <c r="F93" s="59"/>
       <c r="G93" s="42"/>
       <c r="H93" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I93" s="46"/>
       <c r="J93" s="46"/>
       <c r="L93" s="66" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M93" s="66" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.3">
@@ -5448,12 +5449,12 @@
       <c r="F94" s="59"/>
       <c r="G94" s="42"/>
       <c r="H94" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I94" s="46"/>
       <c r="J94" s="46"/>
       <c r="L94" s="66" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M94" s="66" t="s">
         <v>9</v>
@@ -5475,15 +5476,15 @@
       <c r="F95" s="59"/>
       <c r="G95" s="42"/>
       <c r="H95" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I95" s="46"/>
       <c r="J95" s="46"/>
       <c r="L95" s="66" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M95" s="66" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.3">
@@ -5502,12 +5503,12 @@
       <c r="F96" s="59"/>
       <c r="G96" s="42"/>
       <c r="H96" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I96" s="46"/>
       <c r="J96" s="46"/>
       <c r="L96" s="66" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M96" s="66" t="s">
         <v>11</v>
@@ -5529,12 +5530,12 @@
       <c r="F97" s="59"/>
       <c r="G97" s="42"/>
       <c r="H97" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I97" s="46"/>
       <c r="J97" s="46"/>
       <c r="L97" s="66" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M97" s="66" t="s">
         <v>12</v>
@@ -5556,12 +5557,12 @@
       <c r="F98" s="59"/>
       <c r="G98" s="42"/>
       <c r="H98" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I98" s="46"/>
       <c r="J98" s="46"/>
       <c r="L98" s="66" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M98" s="66" t="s">
         <v>13</v>
@@ -5583,12 +5584,12 @@
       <c r="F99" s="59"/>
       <c r="G99" s="42"/>
       <c r="H99" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I99" s="46"/>
       <c r="J99" s="46"/>
       <c r="L99" s="66" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M99" s="66" t="s">
         <v>14</v>
@@ -5610,15 +5611,15 @@
       <c r="F100" s="59"/>
       <c r="G100" s="42"/>
       <c r="H100" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I100" s="46"/>
       <c r="J100" s="46"/>
       <c r="L100" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="M100" s="68" t="s">
         <v>284</v>
-      </c>
-      <c r="M100" s="68" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.3">
@@ -5637,12 +5638,12 @@
       <c r="F101" s="59"/>
       <c r="G101" s="42"/>
       <c r="H101" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I101" s="46"/>
       <c r="J101" s="46"/>
       <c r="L101" s="66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M101" s="66" t="s">
         <v>15</v>
@@ -5671,11 +5672,11 @@
     </row>
     <row r="104" spans="2:13" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B104" s="23"/>
-      <c r="C104" s="100" t="s">
-        <v>185</v>
-      </c>
-      <c r="D104" s="100"/>
-      <c r="E104" s="101"/>
+      <c r="C104" s="85" t="s">
+        <v>184</v>
+      </c>
+      <c r="D104" s="85"/>
+      <c r="E104" s="86"/>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B105" s="4">
@@ -5693,12 +5694,12 @@
       <c r="F105" s="59"/>
       <c r="G105" s="42"/>
       <c r="H105" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I105" s="46"/>
       <c r="J105" s="46"/>
       <c r="L105" s="66" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M105" s="66"/>
     </row>
@@ -5718,12 +5719,12 @@
       <c r="F106" s="59"/>
       <c r="G106" s="42"/>
       <c r="H106" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I106" s="46"/>
       <c r="J106" s="46"/>
       <c r="L106" s="66" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M106" s="66"/>
     </row>
@@ -5735,7 +5736,7 @@
         <v>2</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E107" s="37" t="s">
         <v>36</v>
@@ -5743,12 +5744,12 @@
       <c r="F107" s="59"/>
       <c r="G107" s="42"/>
       <c r="H107" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I107" s="46"/>
       <c r="J107" s="46"/>
       <c r="L107" s="66" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M107" s="66"/>
     </row>
@@ -5768,12 +5769,12 @@
       <c r="F108" s="59"/>
       <c r="G108" s="42"/>
       <c r="H108" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I108" s="46"/>
       <c r="J108" s="46"/>
       <c r="L108" s="66" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M108" s="66"/>
     </row>
@@ -5793,12 +5794,12 @@
       <c r="F109" s="59"/>
       <c r="G109" s="42"/>
       <c r="H109" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I109" s="46"/>
       <c r="J109" s="46"/>
       <c r="L109" s="66" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M109" s="66"/>
     </row>
@@ -5818,12 +5819,12 @@
       <c r="F110" s="59"/>
       <c r="G110" s="42"/>
       <c r="H110" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I110" s="46"/>
       <c r="J110" s="46"/>
       <c r="L110" s="66" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M110" s="66"/>
     </row>
@@ -5843,12 +5844,12 @@
       <c r="F111" s="59"/>
       <c r="G111" s="42"/>
       <c r="H111" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I111" s="46"/>
       <c r="J111" s="46"/>
       <c r="L111" s="66" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M111" s="66"/>
     </row>
@@ -5868,15 +5869,15 @@
       <c r="F112" s="59"/>
       <c r="G112" s="42"/>
       <c r="H112" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I112" s="46"/>
       <c r="J112" s="46"/>
       <c r="L112" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="M112" s="68" t="s">
         <v>284</v>
-      </c>
-      <c r="M112" s="68" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="113" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5895,23 +5896,18 @@
       <c r="F113" s="59"/>
       <c r="G113" s="42"/>
       <c r="H113" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I113" s="46"/>
       <c r="J113" s="46"/>
       <c r="L113" s="66" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M113" s="66"/>
     </row>
     <row r="114" spans="2:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="B24:B39"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B41:B56"/>
     <mergeCell ref="B58:B73"/>
@@ -5920,6 +5916,11 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="B24:B39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5947,14 +5948,14 @@
   <sheetData>
     <row r="1" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="74" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E1" s="76"/>
       <c r="F1" s="65"/>
     </row>
     <row r="2" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="77" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E2" s="76"/>
       <c r="F2" s="65"/>
@@ -5966,378 +5967,378 @@
     </row>
     <row r="4" spans="2:6" s="67" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="79" t="s">
+        <v>360</v>
+      </c>
+      <c r="C4" s="79" t="s">
         <v>361</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="D4" s="79" t="s">
         <v>362</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="E4" s="79" t="s">
         <v>363</v>
-      </c>
-      <c r="E4" s="79" t="s">
-        <v>364</v>
       </c>
       <c r="F4" s="65"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="80" t="s">
+        <v>364</v>
+      </c>
+      <c r="C5" s="81" t="s">
         <v>365</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="D5" s="66" t="s">
         <v>366</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="E5" s="48" t="s">
         <v>367</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="F5" s="67" t="s">
         <v>368</v>
-      </c>
-      <c r="F5" s="67" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="80" t="s">
+        <v>369</v>
+      </c>
+      <c r="C6" s="81" t="s">
         <v>370</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="D6" s="66" t="s">
         <v>371</v>
       </c>
-      <c r="D6" s="66" t="s">
-        <v>372</v>
-      </c>
       <c r="E6" s="48" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="80" t="s">
+        <v>372</v>
+      </c>
+      <c r="C7" s="81" t="s">
         <v>373</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="D7" s="66" t="s">
         <v>374</v>
       </c>
-      <c r="D7" s="66" t="s">
-        <v>375</v>
-      </c>
       <c r="E7" s="48" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="80" t="s">
+        <v>375</v>
+      </c>
+      <c r="C8" s="81" t="s">
         <v>376</v>
-      </c>
-      <c r="C8" s="81" t="s">
-        <v>377</v>
       </c>
       <c r="D8" s="66"/>
       <c r="E8" s="48" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C9" s="81" t="s">
         <v>82</v>
       </c>
       <c r="D9" s="66"/>
       <c r="E9" s="48" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="80" t="s">
+        <v>378</v>
+      </c>
+      <c r="C10" s="81" t="s">
         <v>379</v>
       </c>
-      <c r="C10" s="81" t="s">
-        <v>380</v>
-      </c>
       <c r="D10" s="66" t="s">
+        <v>366</v>
+      </c>
+      <c r="E10" s="48" t="s">
         <v>367</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="80" t="s">
+        <v>380</v>
+      </c>
+      <c r="C11" s="81" t="s">
         <v>381</v>
       </c>
-      <c r="C11" s="81" t="s">
-        <v>382</v>
-      </c>
       <c r="D11" s="66" t="s">
+        <v>366</v>
+      </c>
+      <c r="E11" s="48" t="s">
         <v>367</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="80" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C12" s="81" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D12" s="66" t="s">
+        <v>366</v>
+      </c>
+      <c r="E12" s="48" t="s">
         <v>367</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="80" t="s">
+        <v>383</v>
+      </c>
+      <c r="C13" s="81" t="s">
+        <v>346</v>
+      </c>
+      <c r="D13" s="66" t="s">
         <v>384</v>
       </c>
-      <c r="C13" s="81" t="s">
-        <v>347</v>
-      </c>
-      <c r="D13" s="66" t="s">
-        <v>385</v>
-      </c>
       <c r="E13" s="48" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="80" t="s">
+        <v>385</v>
+      </c>
+      <c r="C14" s="81" t="s">
         <v>386</v>
       </c>
-      <c r="C14" s="81" t="s">
-        <v>387</v>
-      </c>
       <c r="D14" s="66" t="s">
+        <v>366</v>
+      </c>
+      <c r="E14" s="48" t="s">
         <v>367</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="80" t="s">
+        <v>387</v>
+      </c>
+      <c r="C15" s="81" t="s">
+        <v>337</v>
+      </c>
+      <c r="D15" s="66" t="s">
         <v>388</v>
       </c>
-      <c r="C15" s="81" t="s">
-        <v>338</v>
-      </c>
-      <c r="D15" s="66" t="s">
-        <v>389</v>
-      </c>
       <c r="E15" s="48" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="80" t="s">
+        <v>389</v>
+      </c>
+      <c r="C16" s="81" t="s">
         <v>390</v>
       </c>
-      <c r="C16" s="81" t="s">
-        <v>391</v>
-      </c>
       <c r="D16" s="66" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="80" t="s">
+        <v>391</v>
+      </c>
+      <c r="C17" s="81" t="s">
         <v>392</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="D17" s="66" t="s">
         <v>393</v>
       </c>
-      <c r="D17" s="66" t="s">
-        <v>394</v>
-      </c>
       <c r="E17" s="48" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="80" t="s">
+        <v>394</v>
+      </c>
+      <c r="C18" s="81" t="s">
         <v>395</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="D18" s="66" t="s">
         <v>396</v>
       </c>
-      <c r="D18" s="66" t="s">
-        <v>397</v>
-      </c>
       <c r="E18" s="48" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="80" t="s">
+        <v>397</v>
+      </c>
+      <c r="C19" s="81" t="s">
         <v>398</v>
       </c>
-      <c r="C19" s="81" t="s">
-        <v>399</v>
-      </c>
       <c r="D19" s="66" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E19" s="48" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="80" t="s">
+        <v>399</v>
+      </c>
+      <c r="C20" s="81" t="s">
         <v>400</v>
       </c>
-      <c r="C20" s="81" t="s">
-        <v>401</v>
-      </c>
       <c r="D20" s="66" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="80" t="s">
+        <v>401</v>
+      </c>
+      <c r="C21" s="81" t="s">
         <v>402</v>
-      </c>
-      <c r="C21" s="81" t="s">
-        <v>403</v>
       </c>
       <c r="D21" s="66"/>
       <c r="E21" s="48" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="80" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C22" s="81" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D22" s="66" t="s">
+        <v>366</v>
+      </c>
+      <c r="E22" s="48" t="s">
         <v>367</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="80" t="s">
+        <v>404</v>
+      </c>
+      <c r="C23" s="81" t="s">
         <v>405</v>
       </c>
-      <c r="C23" s="81" t="s">
-        <v>406</v>
-      </c>
       <c r="D23" s="66" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E23" s="48" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="80" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C24" s="81" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D24" s="66" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E24" s="48" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="80" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C25" s="81" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D25" s="66" t="s">
+        <v>366</v>
+      </c>
+      <c r="E25" s="48" t="s">
         <v>367</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C26" s="81" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D26" s="66" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="80" t="s">
+        <v>409</v>
+      </c>
+      <c r="C27" s="81" t="s">
         <v>410</v>
       </c>
-      <c r="C27" s="81" t="s">
-        <v>411</v>
-      </c>
       <c r="D27" s="66" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E27" s="48" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="80" t="s">
+        <v>411</v>
+      </c>
+      <c r="C28" s="81" t="s">
         <v>412</v>
       </c>
-      <c r="C28" s="81" t="s">
+      <c r="D28" s="66" t="s">
         <v>413</v>
       </c>
-      <c r="D28" s="66" t="s">
-        <v>414</v>
-      </c>
       <c r="E28" s="48" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="80" t="s">
+        <v>414</v>
+      </c>
+      <c r="C29" s="81" t="s">
         <v>415</v>
       </c>
-      <c r="C29" s="81" t="s">
-        <v>416</v>
-      </c>
       <c r="D29" s="66" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E29" s="48" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="80" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C30" s="81" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D30" s="66" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E30" s="48" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -6363,607 +6364,607 @@
   <sheetData>
     <row r="1" spans="2:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="77" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="83" t="s">
+        <v>563</v>
+      </c>
+      <c r="C3" s="83" t="s">
         <v>564</v>
-      </c>
-      <c r="C3" s="83" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="83" t="s">
+        <v>428</v>
+      </c>
+      <c r="C4" s="83" t="s">
         <v>429</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="83" t="s">
+        <v>430</v>
+      </c>
+      <c r="C5" s="83" t="s">
         <v>431</v>
-      </c>
-      <c r="C5" s="83" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="83" t="s">
+        <v>432</v>
+      </c>
+      <c r="C6" s="83" t="s">
         <v>433</v>
-      </c>
-      <c r="C6" s="83" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="83" t="s">
+        <v>434</v>
+      </c>
+      <c r="C7" s="83" t="s">
         <v>435</v>
-      </c>
-      <c r="C7" s="83" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="83" t="s">
+        <v>436</v>
+      </c>
+      <c r="C8" s="83" t="s">
         <v>437</v>
-      </c>
-      <c r="C8" s="83" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="83" t="s">
+        <v>438</v>
+      </c>
+      <c r="C9" s="83" t="s">
         <v>439</v>
-      </c>
-      <c r="C9" s="83" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="83" t="s">
+        <v>440</v>
+      </c>
+      <c r="C10" s="83" t="s">
         <v>441</v>
-      </c>
-      <c r="C10" s="83" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="83" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" s="83" t="s">
         <v>443</v>
-      </c>
-      <c r="C11" s="83" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="83" t="s">
+        <v>444</v>
+      </c>
+      <c r="C12" s="83" t="s">
         <v>445</v>
-      </c>
-      <c r="C12" s="83" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="83" t="s">
+        <v>446</v>
+      </c>
+      <c r="C13" s="83" t="s">
         <v>447</v>
-      </c>
-      <c r="C13" s="83" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="83" t="s">
+        <v>448</v>
+      </c>
+      <c r="C14" s="83" t="s">
         <v>449</v>
-      </c>
-      <c r="C14" s="83" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="83" t="s">
+        <v>450</v>
+      </c>
+      <c r="C15" s="83" t="s">
         <v>451</v>
-      </c>
-      <c r="C15" s="83" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="83" t="s">
+        <v>452</v>
+      </c>
+      <c r="C16" s="83" t="s">
         <v>453</v>
-      </c>
-      <c r="C16" s="83" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="83" t="s">
+        <v>454</v>
+      </c>
+      <c r="C17" s="83" t="s">
         <v>455</v>
-      </c>
-      <c r="C17" s="83" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="83" t="s">
+        <v>456</v>
+      </c>
+      <c r="C18" s="83" t="s">
         <v>457</v>
-      </c>
-      <c r="C18" s="83" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="83" t="s">
+        <v>458</v>
+      </c>
+      <c r="C19" s="83" t="s">
         <v>459</v>
-      </c>
-      <c r="C19" s="83" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="83" t="s">
+        <v>460</v>
+      </c>
+      <c r="C20" s="83" t="s">
         <v>461</v>
-      </c>
-      <c r="C20" s="83" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="83" t="s">
+        <v>462</v>
+      </c>
+      <c r="C21" s="83" t="s">
         <v>463</v>
-      </c>
-      <c r="C21" s="83" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="83" t="s">
+        <v>464</v>
+      </c>
+      <c r="C22" s="83" t="s">
         <v>465</v>
-      </c>
-      <c r="C22" s="83" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="83" t="s">
+        <v>466</v>
+      </c>
+      <c r="C23" s="83" t="s">
         <v>467</v>
-      </c>
-      <c r="C23" s="83" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="83" t="s">
+        <v>468</v>
+      </c>
+      <c r="C24" s="83" t="s">
         <v>469</v>
-      </c>
-      <c r="C24" s="83" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="83" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C25" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="83" t="s">
+        <v>471</v>
+      </c>
+      <c r="C26" s="83" t="s">
         <v>472</v>
-      </c>
-      <c r="C26" s="83" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="83" t="s">
+        <v>473</v>
+      </c>
+      <c r="C27" s="83" t="s">
         <v>474</v>
-      </c>
-      <c r="C27" s="83" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="C28" s="83" t="s">
         <v>476</v>
-      </c>
-      <c r="C28" s="83" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="C29" s="83" t="s">
         <v>478</v>
-      </c>
-      <c r="C29" s="83" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="83" t="s">
+        <v>479</v>
+      </c>
+      <c r="C30" s="83" t="s">
         <v>480</v>
-      </c>
-      <c r="C30" s="83" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="83" t="s">
+        <v>481</v>
+      </c>
+      <c r="C31" s="83" t="s">
         <v>482</v>
-      </c>
-      <c r="C31" s="83" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="83" t="s">
+        <v>483</v>
+      </c>
+      <c r="C32" s="83" t="s">
         <v>484</v>
-      </c>
-      <c r="C32" s="83" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="83" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C33" s="83" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="83" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C34" s="83" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="83" t="s">
+        <v>487</v>
+      </c>
+      <c r="C35" s="83" t="s">
         <v>488</v>
-      </c>
-      <c r="C35" s="83" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="83" t="s">
+        <v>489</v>
+      </c>
+      <c r="C36" s="83" t="s">
         <v>490</v>
-      </c>
-      <c r="C36" s="83" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="83" t="s">
+        <v>491</v>
+      </c>
+      <c r="C37" s="83" t="s">
         <v>492</v>
-      </c>
-      <c r="C37" s="83" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="83" t="s">
+        <v>493</v>
+      </c>
+      <c r="C38" s="83" t="s">
         <v>494</v>
-      </c>
-      <c r="C38" s="83" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C39" s="83" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="83" t="s">
+        <v>496</v>
+      </c>
+      <c r="C40" s="83" t="s">
         <v>497</v>
-      </c>
-      <c r="C40" s="83" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="83" t="s">
+        <v>498</v>
+      </c>
+      <c r="C41" s="83" t="s">
         <v>499</v>
-      </c>
-      <c r="C41" s="83" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="83" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C42" s="83" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="83" t="s">
+        <v>501</v>
+      </c>
+      <c r="C43" s="83" t="s">
         <v>502</v>
-      </c>
-      <c r="C43" s="83" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="83" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C44" s="83" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="C45" s="83" t="s">
         <v>505</v>
-      </c>
-      <c r="C45" s="83" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" s="83" t="s">
+        <v>506</v>
+      </c>
+      <c r="C46" s="83" t="s">
         <v>507</v>
-      </c>
-      <c r="C46" s="83" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="C47" s="83" t="s">
         <v>509</v>
-      </c>
-      <c r="C47" s="83" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="C48" s="83" t="s">
         <v>511</v>
-      </c>
-      <c r="C48" s="83" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="C49" s="83" t="s">
         <v>513</v>
-      </c>
-      <c r="C49" s="83" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="83" t="s">
+        <v>514</v>
+      </c>
+      <c r="C50" s="83" t="s">
         <v>515</v>
-      </c>
-      <c r="C50" s="83" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="C51" s="83" t="s">
         <v>517</v>
-      </c>
-      <c r="C51" s="83" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="83" t="s">
+        <v>518</v>
+      </c>
+      <c r="C52" s="83" t="s">
         <v>519</v>
-      </c>
-      <c r="C52" s="83" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="83" t="s">
+        <v>520</v>
+      </c>
+      <c r="C53" s="83" t="s">
         <v>521</v>
-      </c>
-      <c r="C53" s="83" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="83" t="s">
+        <v>522</v>
+      </c>
+      <c r="C54" s="83" t="s">
         <v>523</v>
-      </c>
-      <c r="C54" s="83" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="83" t="s">
+        <v>524</v>
+      </c>
+      <c r="C55" s="83" t="s">
         <v>525</v>
-      </c>
-      <c r="C55" s="83" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="83" t="s">
+        <v>526</v>
+      </c>
+      <c r="C56" s="83" t="s">
         <v>527</v>
-      </c>
-      <c r="C56" s="83" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" s="83" t="s">
+        <v>528</v>
+      </c>
+      <c r="C57" s="83" t="s">
         <v>529</v>
-      </c>
-      <c r="C57" s="83" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" s="83" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C58" s="83" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" s="83" t="s">
+        <v>531</v>
+      </c>
+      <c r="C59" s="83" t="s">
         <v>532</v>
-      </c>
-      <c r="C59" s="83" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="83" t="s">
+        <v>533</v>
+      </c>
+      <c r="C60" s="83" t="s">
         <v>534</v>
-      </c>
-      <c r="C60" s="83" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="83" t="s">
+        <v>535</v>
+      </c>
+      <c r="C61" s="83" t="s">
         <v>536</v>
-      </c>
-      <c r="C61" s="83" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="83" t="s">
+        <v>537</v>
+      </c>
+      <c r="C62" s="83" t="s">
         <v>538</v>
-      </c>
-      <c r="C62" s="83" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="83" t="s">
+        <v>539</v>
+      </c>
+      <c r="C63" s="83" t="s">
         <v>540</v>
-      </c>
-      <c r="C63" s="83" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="83" t="s">
+        <v>541</v>
+      </c>
+      <c r="C64" s="83" t="s">
         <v>542</v>
-      </c>
-      <c r="C64" s="83" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="83" t="s">
+        <v>543</v>
+      </c>
+      <c r="C65" s="83" t="s">
         <v>544</v>
-      </c>
-      <c r="C65" s="83" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="83" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C66" s="83" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="83" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C67" s="83" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="83" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C68" s="83" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="83" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C69" s="83" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="83" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C70" s="83" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="83" t="s">
+        <v>550</v>
+      </c>
+      <c r="C71" s="83" t="s">
         <v>551</v>
-      </c>
-      <c r="C71" s="83" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C72" s="83" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C73" s="83" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="83" t="s">
+        <v>554</v>
+      </c>
+      <c r="C74" s="83" t="s">
         <v>555</v>
-      </c>
-      <c r="C74" s="83" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="83" t="s">
+        <v>556</v>
+      </c>
+      <c r="C75" s="83" t="s">
         <v>557</v>
-      </c>
-      <c r="C75" s="83" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="83" t="s">
+        <v>558</v>
+      </c>
+      <c r="C76" s="83" t="s">
         <v>559</v>
-      </c>
-      <c r="C76" s="83" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="83" t="s">
+        <v>560</v>
+      </c>
+      <c r="C77" s="83" t="s">
         <v>561</v>
-      </c>
-      <c r="C77" s="83" t="s">
-        <v>562</v>
       </c>
     </row>
   </sheetData>
